--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/2 SUMARIA CAJAS Y BANCOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/2 SUMARIA CAJAS Y BANCOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6402797F-EAFE-4EA2-9F5A-4221362DCE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37739C-ABD9-4001-95B3-7F1C292EEC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,22 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
     <t>Elaboro</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Reviso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       (Cifras expresadas en quetzales)</t>
   </si>
   <si>
     <t xml:space="preserve">SALDOS S/ BALANCE GENERAL </t>
@@ -129,12 +120,6 @@
     <t>Haber</t>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    CEDULA SUMARIA CAJA Y BANCOS</t>
-  </si>
-  <si>
     <t>A-1</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>Al 01/01/AAAA</t>
+  </si>
+  <si>
+    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>CEDULA SUMARIA CAJA Y BANCOS</t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,19 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -270,18 +257,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -415,9 +396,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -436,111 +417,103 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -646,88 +619,6 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CuadroTexto 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11753850" y="2371725"/>
-          <a:ext cx="3124200" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>La referencia </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>al hacer clic es un vinculo a este papel que debe abrir en sistema </a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1162,7 +1053,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1079,6 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -1200,7 +1090,6 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -1211,213 +1100,202 @@
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="J4" s="33" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="36" t="s">
-        <v>27</v>
-      </c>
+      <c r="E5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="54"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="53"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="53"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="41">
+      <c r="D15" s="29"/>
+      <c r="E15" s="34">
         <f t="shared" ref="E15:J15" si="0">SUBTOTAL(9,E13:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>10</v>
+      <c r="B16" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1427,9 +1305,9 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1439,8 +1317,8 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>22</v>
+      <c r="B18" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1449,11 +1327,11 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1461,134 +1339,134 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="22"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1600,56 +1478,61 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
+      <c r="E31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
+      <c r="E32" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C10:J10"/>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/2 SUMARIA CAJAS Y BANCOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/2 SUMARIA CAJAS Y BANCOS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE37739C-ABD9-4001-95B3-7F1C292EEC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E5CD2C-CF88-4B6D-89F2-5F768C87AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Al 01/01/AAAA</t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">AUDITORIA FINANCIERA </t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,6 +493,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,13 +518,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,7 +1059,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,10 +1114,10 @@
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="54"/>
+      <c r="E5" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="55"/>
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
@@ -1121,10 +1127,10 @@
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="53"/>
+      <c r="E6" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="46"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="12" t="s">
@@ -1135,12 +1141,12 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="D7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="4"/>
       <c r="I7" s="12" t="s">
         <v>1</v>
@@ -1151,10 +1157,10 @@
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="55"/>
+      <c r="E8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="47"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
       <c r="I8" s="12" t="s">
@@ -1166,10 +1172,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="53"/>
+      <c r="E9" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="46"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="12" t="s">
@@ -1179,18 +1185,18 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
         <v>3</v>
@@ -1201,19 +1207,19 @@
       <c r="G11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
@@ -1238,8 +1244,8 @@
       <c r="K12"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -1528,16 +1534,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
